--- a/data/USDA GFS IMPACT V5.xlsx
+++ b/data/USDA GFS IMPACT V5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="310">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Bananas</t>
   </si>
   <si>
@@ -966,6 +963,9 @@
   </si>
   <si>
     <t>Groundnuts Shelled Eq</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1740,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AI1" sqref="AI1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1781,9 +1781,10 @@
     <col min="35" max="35" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -1795,243 +1796,243 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>110</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>114</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>115</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>116</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>117</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>118</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>119</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>121</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>124</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>125</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>126</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>127</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>129</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>131</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>133</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>134</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>135</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>136</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>137</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>138</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>139</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>140</v>
       </c>
-      <c r="AS1" t="s">
-        <v>141</v>
-      </c>
       <c r="AT1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" t="s">
         <v>142</v>
       </c>
-      <c r="K2" t="s">
-        <v>143</v>
-      </c>
       <c r="L2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y2"/>
       <c r="Z2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE2" t="s">
         <v>144</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AF2" t="s">
         <v>144</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AG2" t="s">
         <v>144</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AH2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>144</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL2" t="s">
         <v>144</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>145</v>
       </c>
       <c r="AM2"/>
       <c r="AN2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AP2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AR2"/>
       <c r="AS2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
@@ -2049,142 +2050,142 @@
     </row>
     <row r="3" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" t="s">
         <v>262</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>263</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>264</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>265</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>266</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>267</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>268</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>269</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>270</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>271</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>272</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>273</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>274</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>275</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>276</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>277</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>278</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>279</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>280</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>281</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>282</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>283</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>284</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>285</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>286</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>287</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM3" t="s">
         <v>288</v>
       </c>
-      <c r="AK3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>289</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>290</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>291</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>292</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS3" t="s">
         <v>293</v>
       </c>
-      <c r="AR3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AT3" s="54" t="s">
         <v>294</v>
-      </c>
-      <c r="AT3" s="54" t="s">
-        <v>295</v>
       </c>
       <c r="AU3" s="15"/>
       <c r="AV3" s="15"/>
@@ -2206,25 +2207,25 @@
     </row>
     <row r="5" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="14">
         <v>16501002</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="34">
         <v>0.64</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5"/>
@@ -2331,13 +2332,13 @@
     </row>
     <row r="6" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="14">
         <v>12101001</v>
@@ -2450,13 +2451,13 @@
     </row>
     <row r="7" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="14">
         <v>25101007</v>
@@ -2569,13 +2570,13 @@
     </row>
     <row r="8" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="14">
         <v>18101045</v>
@@ -2689,13 +2690,13 @@
     </row>
     <row r="9" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="14">
         <v>11205001</v>
@@ -2808,13 +2809,13 @@
     </row>
     <row r="10" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="14">
         <v>24302009</v>
@@ -2824,7 +2825,7 @@
         <v>0.84</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10"/>
@@ -2931,13 +2932,13 @@
     </row>
     <row r="11" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3043,13 +3044,13 @@
     </row>
     <row r="12" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="14">
         <v>11804001</v>
@@ -3162,13 +3163,13 @@
     </row>
     <row r="13" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="2"/>
@@ -3262,13 +3263,13 @@
     </row>
     <row r="14" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="14">
         <v>17101001</v>
@@ -3278,7 +3279,7 @@
         <v>0.88</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14"/>
@@ -3388,13 +3389,13 @@
     </row>
     <row r="15" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="14">
         <v>14402008</v>
@@ -3507,13 +3508,13 @@
     </row>
     <row r="16" spans="1:59" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="42">
         <v>22201001</v>
@@ -3626,13 +3627,13 @@
     </row>
     <row r="17" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="14">
         <v>18102056</v>
@@ -3747,13 +3748,13 @@
     </row>
     <row r="18" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="14">
         <v>25101012</v>
@@ -3866,13 +3867,13 @@
     </row>
     <row r="19" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D19" s="55">
         <v>12101009</v>
@@ -3983,13 +3984,13 @@
     </row>
     <row r="20" spans="1:59" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" s="14">
         <v>19101004</v>
@@ -4104,13 +4105,13 @@
     </row>
     <row r="21" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="14">
         <v>12101014</v>
@@ -4217,17 +4218,17 @@
     </row>
     <row r="22" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
@@ -4356,17 +4357,17 @@
     </row>
     <row r="23" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
@@ -4533,23 +4534,23 @@
     </row>
     <row r="24" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="53">
         <v>0.75</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" s="26"/>
       <c r="J24" s="3">
@@ -4651,17 +4652,17 @@
     </row>
     <row r="25" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -4817,13 +4818,13 @@
     </row>
     <row r="26" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4917,13 +4918,13 @@
     </row>
     <row r="27" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5029,13 +5030,13 @@
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
@@ -5043,7 +5044,7 @@
         <v>0.65</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H28" s="49"/>
       <c r="J28" s="3">
@@ -5145,13 +5146,13 @@
     </row>
     <row r="29" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D29" s="14">
         <v>14502003</v>
@@ -5259,13 +5260,13 @@
     </row>
     <row r="30" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="14">
         <v>18103095</v>
@@ -5365,13 +5366,13 @@
     </row>
     <row r="31" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" s="14">
         <v>24101031</v>
@@ -5381,7 +5382,7 @@
         <v>0.75</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31"/>
@@ -5488,13 +5489,13 @@
     </row>
     <row r="32" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D32" s="14">
         <v>18301073</v>
@@ -5504,7 +5505,7 @@
         <v>0.7</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H32" s="6">
         <v>0.61</v>
@@ -5608,13 +5609,13 @@
     </row>
     <row r="33" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" s="14">
         <v>12102002</v>
@@ -5727,13 +5728,13 @@
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D34" s="14">
         <v>14402003</v>
@@ -5849,10 +5850,10 @@
     </row>
     <row r="35" spans="1:59" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -5888,13 +5889,13 @@
     </row>
     <row r="36" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D36" s="14">
         <v>14401008</v>
@@ -6010,13 +6011,13 @@
     </row>
     <row r="37" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D37" s="14">
         <v>14401009</v>
@@ -6129,13 +6130,13 @@
     </row>
     <row r="38" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D38" s="14">
         <v>22101008</v>
@@ -6145,7 +6146,7 @@
         <v>0.54</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38"/>
@@ -6252,13 +6253,13 @@
     </row>
     <row r="39" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -6361,13 +6362,13 @@
     </row>
     <row r="40" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" s="14">
         <v>25101009</v>
@@ -6480,17 +6481,17 @@
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="C41" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -6621,13 +6622,13 @@
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" s="14">
         <v>27101006</v>
@@ -6740,13 +6741,13 @@
     </row>
     <row r="43" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="14">
         <v>24302043</v>
@@ -6756,7 +6757,7 @@
         <v>0.72</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43"/>
@@ -6863,19 +6864,19 @@
     </row>
     <row r="44" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D44" s="57">
         <v>11101001</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -6974,17 +6975,17 @@
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -7115,17 +7116,17 @@
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -7242,13 +7243,13 @@
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" s="14">
         <v>14401010</v>
@@ -7360,17 +7361,17 @@
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -7501,13 +7502,13 @@
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" s="14">
         <v>12103014</v>
@@ -7608,13 +7609,13 @@
     </row>
     <row r="50" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" s="14">
         <v>24302034</v>
@@ -7624,7 +7625,7 @@
         <v>0.86</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50"/>
@@ -7731,16 +7732,16 @@
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B52" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -7748,7 +7749,7 @@
         <v>0.73</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53"/>
@@ -7855,10 +7856,10 @@
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -7866,7 +7867,7 @@
         <v>0.71</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54"/>
@@ -7973,10 +7974,10 @@
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -7984,7 +7985,7 @@
         <v>0.51</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55"/>
@@ -8091,10 +8092,10 @@
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -8102,7 +8103,7 @@
         <v>0.53</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56"/>
@@ -8209,10 +8210,10 @@
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -8220,7 +8221,7 @@
         <v>0.62</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57"/>
@@ -8327,10 +8328,10 @@
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
@@ -8338,7 +8339,7 @@
         <v>0.5</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I58"/>
       <c r="J58">
@@ -8444,10 +8445,10 @@
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -8455,7 +8456,7 @@
         <v>0.92</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59"/>
@@ -8593,7 +8594,7 @@
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C61" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I61" s="31"/>
       <c r="J61" s="31">
@@ -8757,16 +8758,16 @@
     </row>
     <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B62" s="50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
@@ -8774,7 +8775,7 @@
         <v>0.9</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63"/>
@@ -8881,10 +8882,10 @@
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -8892,7 +8893,7 @@
         <v>0.96</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I64"/>
       <c r="J64">
@@ -8998,10 +8999,10 @@
     </row>
     <row r="65" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -9009,7 +9010,7 @@
         <v>0.51</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I65"/>
       <c r="J65">
@@ -9115,10 +9116,10 @@
     </row>
     <row r="66" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -9126,7 +9127,7 @@
         <v>0.9</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66"/>
@@ -9233,10 +9234,10 @@
     </row>
     <row r="67" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
@@ -9244,7 +9245,7 @@
         <v>0.96</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I67"/>
       <c r="J67">
@@ -9350,7 +9351,7 @@
     </row>
     <row r="68" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C68" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" ref="J68:AS68" si="3" xml:space="preserve"> (0.344*J63) + (0.329*J64) + (0.126*J65) + (0.108*J66) + (0.092*J67)</f>
@@ -9499,15 +9500,15 @@
     </row>
     <row r="69" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B69" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="2:46" ht="30" x14ac:dyDescent="0.2">
       <c r="B70" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="41"/>
@@ -9515,7 +9516,7 @@
         <v>0.91</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70"/>
@@ -9622,10 +9623,10 @@
     </row>
     <row r="71" spans="2:46" ht="30" x14ac:dyDescent="0.2">
       <c r="B71" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="40"/>
@@ -9633,7 +9634,7 @@
         <v>0.9</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I71"/>
       <c r="J71">
@@ -9739,10 +9740,10 @@
     </row>
     <row r="72" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B72" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="41"/>
@@ -9750,7 +9751,7 @@
         <v>0.97</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I72"/>
       <c r="J72">
@@ -9856,10 +9857,10 @@
     </row>
     <row r="73" spans="2:46" ht="30" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="40"/>
@@ -9867,7 +9868,7 @@
         <v>0.89</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I73"/>
       <c r="J73">
@@ -9976,10 +9977,10 @@
     </row>
     <row r="74" spans="2:46" ht="30" x14ac:dyDescent="0.2">
       <c r="B74" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="41"/>
@@ -9987,7 +9988,7 @@
         <v>0.8</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I74"/>
       <c r="J74">
@@ -10094,10 +10095,10 @@
     </row>
     <row r="75" spans="2:46" ht="30" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="41"/>
@@ -10105,7 +10106,7 @@
         <v>0.82</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I75"/>
       <c r="J75">
@@ -10212,7 +10213,7 @@
     </row>
     <row r="76" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C76" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J76" s="3">
         <f t="shared" ref="J76:AS76" si="4">((0.296*J70) + (0.155*J71) + (0.129*J72) + (0.067*J73) +(0.129*J74) + (0.067*J75))/0.832</f>
@@ -10361,15 +10362,15 @@
     </row>
     <row r="77" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B77" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B78" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D78" s="14">
         <v>12101025</v>
@@ -10482,10 +10483,10 @@
     </row>
     <row r="79" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B79" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D79" s="14">
         <v>12101017</v>
@@ -10587,7 +10588,7 @@
     </row>
     <row r="80" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C80" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J80" s="3">
         <f t="shared" ref="J80:P80" si="5">(0.41*J78)+(0.59*J79)</f>
@@ -10732,15 +10733,15 @@
     </row>
     <row r="81" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B81" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B82" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D82" s="14">
         <v>25101018</v>
@@ -10852,10 +10853,10 @@
     </row>
     <row r="83" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B83" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" s="14">
         <v>25101004</v>
@@ -10967,10 +10968,10 @@
     </row>
     <row r="84" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B84" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D84" s="14">
         <v>25101002</v>
@@ -11082,7 +11083,7 @@
     </row>
     <row r="85" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C85" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J85" s="3">
         <f t="shared" ref="J85:AS85" si="8">(J82 + J83 + J84)/3</f>
@@ -11231,24 +11232,24 @@
     </row>
     <row r="87" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B87" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="E88" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F88" s="45">
         <v>0.45</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I88"/>
       <c r="J88">
@@ -11354,19 +11355,19 @@
     </row>
     <row r="89" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B89" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="F89" s="45">
         <v>0.4</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I89"/>
       <c r="J89">
@@ -11475,7 +11476,7 @@
     </row>
     <row r="90" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C90" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J90" s="3">
         <f t="shared" ref="J90:AT90" si="9">(J88+J89)/2</f>
@@ -11628,15 +11629,15 @@
     </row>
     <row r="91" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B91" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B92" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I92"/>
       <c r="J92">
@@ -11742,10 +11743,10 @@
     </row>
     <row r="93" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I93"/>
       <c r="J93">
@@ -11851,10 +11852,10 @@
     </row>
     <row r="94" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B94" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I94"/>
       <c r="J94">
@@ -11960,7 +11961,7 @@
     </row>
     <row r="95" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C95" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J95" s="3">
         <f t="shared" ref="J95:AS95" si="10" xml:space="preserve"> (J92 + J93 + J94)/3</f>
